--- a/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>216</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>64</v>
@@ -508,111 +508,111 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45460</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45495</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>16</v>
@@ -620,65 +620,265 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45502</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45509</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45544</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45586</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>80</v>
       </c>
     </row>
@@ -693,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,81 +915,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>168</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>696</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>432</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>288</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>144</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,15 +524,15 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,191 +540,191 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>64</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>304</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>216</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>72</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>288</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>64</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>16</v>
@@ -732,79 +732,79 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>16</v>
@@ -812,23 +812,23 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>32</v>
@@ -836,23 +836,23 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>32</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>32</v>
@@ -868,17 +868,9 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B55" t="n">
         <v>80</v>
       </c>
     </row>
@@ -942,7 +934,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">

--- a/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -901,7 +902,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1047,6 +1048,901 @@
       </c>
       <c r="B19" t="n">
         <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-28.21677656631963</v>
+      </c>
+      <c r="D2" t="n">
+        <v>162.3380479894555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.23696643990653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>167.2507691192567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>71</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-17.65701230870259</v>
+      </c>
+      <c r="D4" t="n">
+        <v>169.0397230316897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-20.52268899855125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>168.6524718851996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-24.56225615910731</v>
+      </c>
+      <c r="D6" t="n">
+        <v>165.5650560364483</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.33268383353673</v>
+      </c>
+      <c r="D7" t="n">
+        <v>164.8034595619595</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-21.91007678836576</v>
+      </c>
+      <c r="D8" t="n">
+        <v>165.1702328434654</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-27.6447699834739</v>
+      </c>
+      <c r="D9" t="n">
+        <v>158.1506914757409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-17.43974685344936</v>
+      </c>
+      <c r="D10" t="n">
+        <v>163.8526918462009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>73</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-20.12674799706491</v>
+      </c>
+      <c r="D11" t="n">
+        <v>171.9751416287586</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-20.89572681579227</v>
+      </c>
+      <c r="D12" t="n">
+        <v>168.3745591953663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.83989929306486</v>
+      </c>
+      <c r="D13" t="n">
+        <v>172.2474947698102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>73</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-25.18487679769967</v>
+      </c>
+      <c r="D14" t="n">
+        <v>167.6364626559885</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-15.84022129092052</v>
+      </c>
+      <c r="D15" t="n">
+        <v>170.7378518674577</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.14166329857698</v>
+      </c>
+      <c r="D16" t="n">
+        <v>165.8402399052939</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>74</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.73782952755248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>164.76672584292</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>74</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-20.61905200321639</v>
+      </c>
+      <c r="D18" t="n">
+        <v>165.1278724870119</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>74</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-25.66670362764065</v>
+      </c>
+      <c r="D19" t="n">
+        <v>169.617248351972</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-19.44818773672649</v>
+      </c>
+      <c r="D20" t="n">
+        <v>171.7660428424636</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-30.51098614521884</v>
+      </c>
+      <c r="D21" t="n">
+        <v>167.2791627419558</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-18.20192904159948</v>
+      </c>
+      <c r="D22" t="n">
+        <v>171.9218348819983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-20.90774713914364</v>
+      </c>
+      <c r="D23" t="n">
+        <v>169.4920980919215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-18.24229267485949</v>
+      </c>
+      <c r="D24" t="n">
+        <v>174.5556780555137</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-20.06262939179571</v>
+      </c>
+      <c r="D25" t="n">
+        <v>175.3438547878284</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>76</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-22.21200404089453</v>
+      </c>
+      <c r="D26" t="n">
+        <v>166.2545909491403</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>76</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-19.44838767845842</v>
+      </c>
+      <c r="D27" t="n">
+        <v>177.7713985188225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>76</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-13.90005637103124</v>
+      </c>
+      <c r="D28" t="n">
+        <v>177.2900872365813</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>76</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-12.89329448682815</v>
+      </c>
+      <c r="D29" t="n">
+        <v>178.818643085625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>77</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-15.23602338176387</v>
+      </c>
+      <c r="D30" t="n">
+        <v>170.6990546768848</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-15.41129391876943</v>
+      </c>
+      <c r="D31" t="n">
+        <v>172.5515145491383</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.91829413557062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>166.0902409854458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-19.53532880670817</v>
+      </c>
+      <c r="D33" t="n">
+        <v>170.2588158024665</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>77</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-11.24637062832593</v>
+      </c>
+      <c r="D34" t="n">
+        <v>172.9983723912783</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>77</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-19.26448950181715</v>
+      </c>
+      <c r="D35" t="n">
+        <v>174.682794921398</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>77</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-23.03594471694328</v>
+      </c>
+      <c r="D36" t="n">
+        <v>175.8704527150077</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-21.0073518010217</v>
+      </c>
+      <c r="D37" t="n">
+        <v>168.8330297724889</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-17.91151757654313</v>
+      </c>
+      <c r="D38" t="n">
+        <v>166.3112498922571</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>78</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-15.97809053185206</v>
+      </c>
+      <c r="D39" t="n">
+        <v>172.1447989404428</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-19.36042060796551</v>
+      </c>
+      <c r="D40" t="n">
+        <v>164.4156176725316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-23.25298230668656</v>
+      </c>
+      <c r="D41" t="n">
+        <v>168.2139319383576</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>78</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-15.70703188189221</v>
+      </c>
+      <c r="D42" t="n">
+        <v>170.8734981069626</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-21.77249078720494</v>
+      </c>
+      <c r="D43" t="n">
+        <v>169.8858415502849</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>79</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-20.44095025836367</v>
+      </c>
+      <c r="D44" t="n">
+        <v>170.0035658773764</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-12.0758054794917</v>
+      </c>
+      <c r="D45" t="n">
+        <v>172.8127403795625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>79</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-12.03407418557256</v>
+      </c>
+      <c r="D46" t="n">
+        <v>169.9662384416014</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>79</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-12.63844218422951</v>
+      </c>
+      <c r="D47" t="n">
+        <v>168.8848454291002</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-17.59024481947676</v>
+      </c>
+      <c r="D48" t="n">
+        <v>170.4264850595441</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-16.79673398350523</v>
+      </c>
+      <c r="D49" t="n">
+        <v>174.6669229697923</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>80</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-11.36877780055335</v>
+      </c>
+      <c r="D50" t="n">
+        <v>180.7462502343483</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>80</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-8.647722560036133</v>
+      </c>
+      <c r="D51" t="n">
+        <v>181.7845080466439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>81</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-7.08780310255937</v>
+      </c>
+      <c r="D52" t="n">
+        <v>183.0035622268193</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>81</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-14.74292080712049</v>
+      </c>
+      <c r="D53" t="n">
+        <v>176.0512794096134</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>81</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-12.25300056397103</v>
+      </c>
+      <c r="D54" t="n">
+        <v>165.8645057427096</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>81</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-12.13414849823725</v>
+      </c>
+      <c r="D55" t="n">
+        <v>177.0562557809844</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>81</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-7.09780826831974</v>
+      </c>
+      <c r="D56" t="n">
+        <v>186.3239439613612</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>81</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-9.399311447932773</v>
+      </c>
+      <c r="D57" t="n">
+        <v>180.6110862070998</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>82</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-12.10204201869205</v>
+      </c>
+      <c r="D58" t="n">
+        <v>177.8053569643739</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>82</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-13.5502865914628</v>
+      </c>
+      <c r="D59" t="n">
+        <v>182.5578556037352</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>82</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-12.53776903144552</v>
+      </c>
+      <c r="D60" t="n">
+        <v>175.5038197138916</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>82</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-7.691837888715024</v>
+      </c>
+      <c r="D61" t="n">
+        <v>172.8704516323194</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>82</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-4.420359950316651</v>
+      </c>
+      <c r="D62" t="n">
+        <v>179.9877705915623</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZ54DR5L_po_data.xlsx
@@ -1061,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,16 +1080,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1098,12 +1088,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>-28.21677656631963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>162.3380479894555</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1112,12 +1096,6 @@
       <c r="B3" t="n">
         <v>71</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.23696643990653</v>
-      </c>
-      <c r="D3" t="n">
-        <v>167.2507691192567</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1126,12 +1104,6 @@
       <c r="B4" t="n">
         <v>71</v>
       </c>
-      <c r="C4" t="n">
-        <v>-17.65701230870259</v>
-      </c>
-      <c r="D4" t="n">
-        <v>169.0397230316897</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1140,12 +1112,6 @@
       <c r="B5" t="n">
         <v>71</v>
       </c>
-      <c r="C5" t="n">
-        <v>-20.52268899855125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>168.6524718851996</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1154,12 +1120,6 @@
       <c r="B6" t="n">
         <v>71</v>
       </c>
-      <c r="C6" t="n">
-        <v>-24.56225615910731</v>
-      </c>
-      <c r="D6" t="n">
-        <v>165.5650560364483</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1168,12 +1128,6 @@
       <c r="B7" t="n">
         <v>72</v>
       </c>
-      <c r="C7" t="n">
-        <v>-26.33268383353673</v>
-      </c>
-      <c r="D7" t="n">
-        <v>164.8034595619595</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1182,12 +1136,6 @@
       <c r="B8" t="n">
         <v>72</v>
       </c>
-      <c r="C8" t="n">
-        <v>-21.91007678836576</v>
-      </c>
-      <c r="D8" t="n">
-        <v>165.1702328434654</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1196,12 +1144,6 @@
       <c r="B9" t="n">
         <v>72</v>
       </c>
-      <c r="C9" t="n">
-        <v>-27.6447699834739</v>
-      </c>
-      <c r="D9" t="n">
-        <v>158.1506914757409</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1210,12 +1152,6 @@
       <c r="B10" t="n">
         <v>72</v>
       </c>
-      <c r="C10" t="n">
-        <v>-17.43974685344936</v>
-      </c>
-      <c r="D10" t="n">
-        <v>163.8526918462009</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1224,12 +1160,6 @@
       <c r="B11" t="n">
         <v>73</v>
       </c>
-      <c r="C11" t="n">
-        <v>-20.12674799706491</v>
-      </c>
-      <c r="D11" t="n">
-        <v>171.9751416287586</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1238,12 +1168,6 @@
       <c r="B12" t="n">
         <v>73</v>
       </c>
-      <c r="C12" t="n">
-        <v>-20.89572681579227</v>
-      </c>
-      <c r="D12" t="n">
-        <v>168.3745591953663</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1252,12 +1176,6 @@
       <c r="B13" t="n">
         <v>73</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.83989929306486</v>
-      </c>
-      <c r="D13" t="n">
-        <v>172.2474947698102</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1266,12 +1184,6 @@
       <c r="B14" t="n">
         <v>73</v>
       </c>
-      <c r="C14" t="n">
-        <v>-25.18487679769967</v>
-      </c>
-      <c r="D14" t="n">
-        <v>167.6364626559885</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1280,12 +1192,6 @@
       <c r="B15" t="n">
         <v>74</v>
       </c>
-      <c r="C15" t="n">
-        <v>-15.84022129092052</v>
-      </c>
-      <c r="D15" t="n">
-        <v>170.7378518674577</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1294,12 +1200,6 @@
       <c r="B16" t="n">
         <v>74</v>
       </c>
-      <c r="C16" t="n">
-        <v>-16.14166329857698</v>
-      </c>
-      <c r="D16" t="n">
-        <v>165.8402399052939</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1308,12 +1208,6 @@
       <c r="B17" t="n">
         <v>74</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.73782952755248</v>
-      </c>
-      <c r="D17" t="n">
-        <v>164.76672584292</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1322,12 +1216,6 @@
       <c r="B18" t="n">
         <v>74</v>
       </c>
-      <c r="C18" t="n">
-        <v>-20.61905200321639</v>
-      </c>
-      <c r="D18" t="n">
-        <v>165.1278724870119</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1336,12 +1224,6 @@
       <c r="B19" t="n">
         <v>74</v>
       </c>
-      <c r="C19" t="n">
-        <v>-25.66670362764065</v>
-      </c>
-      <c r="D19" t="n">
-        <v>169.617248351972</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1350,12 +1232,6 @@
       <c r="B20" t="n">
         <v>74</v>
       </c>
-      <c r="C20" t="n">
-        <v>-19.44818773672649</v>
-      </c>
-      <c r="D20" t="n">
-        <v>171.7660428424636</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1364,12 +1240,6 @@
       <c r="B21" t="n">
         <v>75</v>
       </c>
-      <c r="C21" t="n">
-        <v>-30.51098614521884</v>
-      </c>
-      <c r="D21" t="n">
-        <v>167.2791627419558</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1378,12 +1248,6 @@
       <c r="B22" t="n">
         <v>75</v>
       </c>
-      <c r="C22" t="n">
-        <v>-18.20192904159948</v>
-      </c>
-      <c r="D22" t="n">
-        <v>171.9218348819983</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1392,12 +1256,6 @@
       <c r="B23" t="n">
         <v>75</v>
       </c>
-      <c r="C23" t="n">
-        <v>-20.90774713914364</v>
-      </c>
-      <c r="D23" t="n">
-        <v>169.4920980919215</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1406,12 +1264,6 @@
       <c r="B24" t="n">
         <v>75</v>
       </c>
-      <c r="C24" t="n">
-        <v>-18.24229267485949</v>
-      </c>
-      <c r="D24" t="n">
-        <v>174.5556780555137</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1420,12 +1272,6 @@
       <c r="B25" t="n">
         <v>75</v>
       </c>
-      <c r="C25" t="n">
-        <v>-20.06262939179571</v>
-      </c>
-      <c r="D25" t="n">
-        <v>175.3438547878284</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1434,12 +1280,6 @@
       <c r="B26" t="n">
         <v>76</v>
       </c>
-      <c r="C26" t="n">
-        <v>-22.21200404089453</v>
-      </c>
-      <c r="D26" t="n">
-        <v>166.2545909491403</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1448,12 +1288,6 @@
       <c r="B27" t="n">
         <v>76</v>
       </c>
-      <c r="C27" t="n">
-        <v>-19.44838767845842</v>
-      </c>
-      <c r="D27" t="n">
-        <v>177.7713985188225</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1462,12 +1296,6 @@
       <c r="B28" t="n">
         <v>76</v>
       </c>
-      <c r="C28" t="n">
-        <v>-13.90005637103124</v>
-      </c>
-      <c r="D28" t="n">
-        <v>177.2900872365813</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1476,12 +1304,6 @@
       <c r="B29" t="n">
         <v>76</v>
       </c>
-      <c r="C29" t="n">
-        <v>-12.89329448682815</v>
-      </c>
-      <c r="D29" t="n">
-        <v>178.818643085625</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1490,12 +1312,6 @@
       <c r="B30" t="n">
         <v>77</v>
       </c>
-      <c r="C30" t="n">
-        <v>-15.23602338176387</v>
-      </c>
-      <c r="D30" t="n">
-        <v>170.6990546768848</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1504,12 +1320,6 @@
       <c r="B31" t="n">
         <v>77</v>
       </c>
-      <c r="C31" t="n">
-        <v>-15.41129391876943</v>
-      </c>
-      <c r="D31" t="n">
-        <v>172.5515145491383</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1518,12 +1328,6 @@
       <c r="B32" t="n">
         <v>77</v>
       </c>
-      <c r="C32" t="n">
-        <v>-19.91829413557062</v>
-      </c>
-      <c r="D32" t="n">
-        <v>166.0902409854458</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1532,12 +1336,6 @@
       <c r="B33" t="n">
         <v>77</v>
       </c>
-      <c r="C33" t="n">
-        <v>-19.53532880670817</v>
-      </c>
-      <c r="D33" t="n">
-        <v>170.2588158024665</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1546,12 +1344,6 @@
       <c r="B34" t="n">
         <v>77</v>
       </c>
-      <c r="C34" t="n">
-        <v>-11.24637062832593</v>
-      </c>
-      <c r="D34" t="n">
-        <v>172.9983723912783</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1560,12 +1352,6 @@
       <c r="B35" t="n">
         <v>77</v>
       </c>
-      <c r="C35" t="n">
-        <v>-19.26448950181715</v>
-      </c>
-      <c r="D35" t="n">
-        <v>174.682794921398</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1574,12 +1360,6 @@
       <c r="B36" t="n">
         <v>77</v>
       </c>
-      <c r="C36" t="n">
-        <v>-23.03594471694328</v>
-      </c>
-      <c r="D36" t="n">
-        <v>175.8704527150077</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1588,12 +1368,6 @@
       <c r="B37" t="n">
         <v>77</v>
       </c>
-      <c r="C37" t="n">
-        <v>-21.0073518010217</v>
-      </c>
-      <c r="D37" t="n">
-        <v>168.8330297724889</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1602,12 +1376,6 @@
       <c r="B38" t="n">
         <v>78</v>
       </c>
-      <c r="C38" t="n">
-        <v>-17.91151757654313</v>
-      </c>
-      <c r="D38" t="n">
-        <v>166.3112498922571</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1616,12 +1384,6 @@
       <c r="B39" t="n">
         <v>78</v>
       </c>
-      <c r="C39" t="n">
-        <v>-15.97809053185206</v>
-      </c>
-      <c r="D39" t="n">
-        <v>172.1447989404428</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1630,12 +1392,6 @@
       <c r="B40" t="n">
         <v>78</v>
       </c>
-      <c r="C40" t="n">
-        <v>-19.36042060796551</v>
-      </c>
-      <c r="D40" t="n">
-        <v>164.4156176725316</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1644,12 +1400,6 @@
       <c r="B41" t="n">
         <v>78</v>
       </c>
-      <c r="C41" t="n">
-        <v>-23.25298230668656</v>
-      </c>
-      <c r="D41" t="n">
-        <v>168.2139319383576</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1658,12 +1408,6 @@
       <c r="B42" t="n">
         <v>78</v>
       </c>
-      <c r="C42" t="n">
-        <v>-15.70703188189221</v>
-      </c>
-      <c r="D42" t="n">
-        <v>170.8734981069626</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1672,12 +1416,6 @@
       <c r="B43" t="n">
         <v>79</v>
       </c>
-      <c r="C43" t="n">
-        <v>-21.77249078720494</v>
-      </c>
-      <c r="D43" t="n">
-        <v>169.8858415502849</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1686,12 +1424,6 @@
       <c r="B44" t="n">
         <v>79</v>
       </c>
-      <c r="C44" t="n">
-        <v>-20.44095025836367</v>
-      </c>
-      <c r="D44" t="n">
-        <v>170.0035658773764</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1700,12 +1432,6 @@
       <c r="B45" t="n">
         <v>79</v>
       </c>
-      <c r="C45" t="n">
-        <v>-12.0758054794917</v>
-      </c>
-      <c r="D45" t="n">
-        <v>172.8127403795625</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1714,12 +1440,6 @@
       <c r="B46" t="n">
         <v>79</v>
       </c>
-      <c r="C46" t="n">
-        <v>-12.03407418557256</v>
-      </c>
-      <c r="D46" t="n">
-        <v>169.9662384416014</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1728,12 +1448,6 @@
       <c r="B47" t="n">
         <v>79</v>
       </c>
-      <c r="C47" t="n">
-        <v>-12.63844218422951</v>
-      </c>
-      <c r="D47" t="n">
-        <v>168.8848454291002</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1742,12 +1456,6 @@
       <c r="B48" t="n">
         <v>80</v>
       </c>
-      <c r="C48" t="n">
-        <v>-17.59024481947676</v>
-      </c>
-      <c r="D48" t="n">
-        <v>170.4264850595441</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1756,12 +1464,6 @@
       <c r="B49" t="n">
         <v>80</v>
       </c>
-      <c r="C49" t="n">
-        <v>-16.79673398350523</v>
-      </c>
-      <c r="D49" t="n">
-        <v>174.6669229697923</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1770,12 +1472,6 @@
       <c r="B50" t="n">
         <v>80</v>
       </c>
-      <c r="C50" t="n">
-        <v>-11.36877780055335</v>
-      </c>
-      <c r="D50" t="n">
-        <v>180.7462502343483</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1784,12 +1480,6 @@
       <c r="B51" t="n">
         <v>80</v>
       </c>
-      <c r="C51" t="n">
-        <v>-8.647722560036133</v>
-      </c>
-      <c r="D51" t="n">
-        <v>181.7845080466439</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1798,12 +1488,6 @@
       <c r="B52" t="n">
         <v>81</v>
       </c>
-      <c r="C52" t="n">
-        <v>-7.08780310255937</v>
-      </c>
-      <c r="D52" t="n">
-        <v>183.0035622268193</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1812,12 +1496,6 @@
       <c r="B53" t="n">
         <v>81</v>
       </c>
-      <c r="C53" t="n">
-        <v>-14.74292080712049</v>
-      </c>
-      <c r="D53" t="n">
-        <v>176.0512794096134</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1826,12 +1504,6 @@
       <c r="B54" t="n">
         <v>81</v>
       </c>
-      <c r="C54" t="n">
-        <v>-12.25300056397103</v>
-      </c>
-      <c r="D54" t="n">
-        <v>165.8645057427096</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1840,12 +1512,6 @@
       <c r="B55" t="n">
         <v>81</v>
       </c>
-      <c r="C55" t="n">
-        <v>-12.13414849823725</v>
-      </c>
-      <c r="D55" t="n">
-        <v>177.0562557809844</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1854,12 +1520,6 @@
       <c r="B56" t="n">
         <v>81</v>
       </c>
-      <c r="C56" t="n">
-        <v>-7.09780826831974</v>
-      </c>
-      <c r="D56" t="n">
-        <v>186.3239439613612</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1868,12 +1528,6 @@
       <c r="B57" t="n">
         <v>81</v>
       </c>
-      <c r="C57" t="n">
-        <v>-9.399311447932773</v>
-      </c>
-      <c r="D57" t="n">
-        <v>180.6110862070998</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1882,12 +1536,6 @@
       <c r="B58" t="n">
         <v>82</v>
       </c>
-      <c r="C58" t="n">
-        <v>-12.10204201869205</v>
-      </c>
-      <c r="D58" t="n">
-        <v>177.8053569643739</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1896,12 +1544,6 @@
       <c r="B59" t="n">
         <v>82</v>
       </c>
-      <c r="C59" t="n">
-        <v>-13.5502865914628</v>
-      </c>
-      <c r="D59" t="n">
-        <v>182.5578556037352</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1910,12 +1552,6 @@
       <c r="B60" t="n">
         <v>82</v>
       </c>
-      <c r="C60" t="n">
-        <v>-12.53776903144552</v>
-      </c>
-      <c r="D60" t="n">
-        <v>175.5038197138916</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1924,12 +1560,6 @@
       <c r="B61" t="n">
         <v>82</v>
       </c>
-      <c r="C61" t="n">
-        <v>-7.691837888715024</v>
-      </c>
-      <c r="D61" t="n">
-        <v>172.8704516323194</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1937,12 +1567,6 @@
       </c>
       <c r="B62" t="n">
         <v>82</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-4.420359950316651</v>
-      </c>
-      <c r="D62" t="n">
-        <v>179.9877705915623</v>
       </c>
     </row>
   </sheetData>
